--- a/src/main/resources/sql/数据字典1.4.xlsx
+++ b/src/main/resources/sql/数据字典1.4.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B782578-B53E-4EC1-B274-A2C8E9B90FA5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B133DC10-599A-4FA4-9027-FEEA912E8E04}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="600" windowWidth="17970" windowHeight="7740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="1200" windowWidth="17970" windowHeight="7740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="数据字典" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="777" uniqueCount="336">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="780" uniqueCount="338">
   <si>
     <t>表名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1282,10 +1282,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>(下单时)订单价格=天数*(基础价 + 服务费)*折扣-优惠券面值</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>总价 = (下单时)订单价格 + 其它费用</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1346,6 +1342,19 @@
   </si>
   <si>
     <t>是否封面 0-非封面 1-封面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>基础价(时)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>base_hour_price</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(下单时)订单价格=（天数*(基础价 + 服务费)*折扣-优惠券面值；
+不足一天的计算方式：订单价格=(小时数*【基础价（时） + 服务费】*折扣-优惠券面值)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1450,7 +1459,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1477,13 +1486,25 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Bad" xfId="1" builtinId="27"/>
@@ -1766,10 +1787,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J258"/>
+  <dimension ref="A1:J259"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A220" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H155" sqref="H155"/>
+    <sheetView tabSelected="1" topLeftCell="A163" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D179" sqref="D179"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1777,7 +1798,7 @@
     <col min="1" max="1" width="29.75" style="1" customWidth="1"/>
     <col min="2" max="2" width="16.875" style="1" customWidth="1"/>
     <col min="3" max="3" width="15.5" style="1" customWidth="1"/>
-    <col min="4" max="4" width="60.625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="111.875" style="1" customWidth="1"/>
     <col min="5" max="5" width="29" style="7" customWidth="1"/>
     <col min="7" max="7" width="16.25" style="1" customWidth="1"/>
     <col min="8" max="8" width="15" style="1" customWidth="1"/>
@@ -1807,7 +1828,7 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A2" s="12" t="s">
+      <c r="A2" s="13" t="s">
         <v>4</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -1819,7 +1840,7 @@
       <c r="D2" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="E2" s="12" t="s">
+      <c r="E2" s="13" t="s">
         <v>147</v>
       </c>
       <c r="G2" s="2" t="s">
@@ -1827,7 +1848,7 @@
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A3" s="12"/>
+      <c r="A3" s="13"/>
       <c r="B3" s="1" t="s">
         <v>6</v>
       </c>
@@ -1837,13 +1858,13 @@
       <c r="D3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="12"/>
+      <c r="E3" s="13"/>
       <c r="G3" s="2" t="s">
         <v>258</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A4" s="12"/>
+      <c r="A4" s="13"/>
       <c r="B4" s="1" t="s">
         <v>270</v>
       </c>
@@ -1853,11 +1874,11 @@
       <c r="D4" s="1" t="s">
         <v>271</v>
       </c>
-      <c r="E4" s="12"/>
+      <c r="E4" s="13"/>
       <c r="G4" s="2"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A5" s="12"/>
+      <c r="A5" s="13"/>
       <c r="B5" s="1" t="s">
         <v>7</v>
       </c>
@@ -1867,13 +1888,13 @@
       <c r="D5" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E5" s="12"/>
+      <c r="E5" s="13"/>
       <c r="G5" s="2" t="s">
         <v>262</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A6" s="12"/>
+      <c r="A6" s="13"/>
       <c r="B6" s="1" t="s">
         <v>8</v>
       </c>
@@ -1883,13 +1904,13 @@
       <c r="D6" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E6" s="12"/>
+      <c r="E6" s="13"/>
       <c r="G6" s="2" t="s">
         <v>261</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A7" s="12"/>
+      <c r="A7" s="13"/>
       <c r="B7" s="1" t="s">
         <v>9</v>
       </c>
@@ -1899,11 +1920,11 @@
       <c r="D7" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E7" s="12"/>
+      <c r="E7" s="13"/>
       <c r="G7" s="2"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A8" s="12"/>
+      <c r="A8" s="13"/>
       <c r="B8" s="1" t="s">
         <v>129</v>
       </c>
@@ -1913,10 +1934,10 @@
       <c r="D8" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="E8" s="12"/>
+      <c r="E8" s="13"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A9" s="12"/>
+      <c r="A9" s="13"/>
       <c r="B9" s="1" t="s">
         <v>46</v>
       </c>
@@ -1926,10 +1947,10 @@
       <c r="D9" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="E9" s="12"/>
+      <c r="E9" s="13"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A10" s="12"/>
+      <c r="A10" s="13"/>
       <c r="B10" s="1" t="s">
         <v>49</v>
       </c>
@@ -1939,10 +1960,10 @@
       <c r="D10" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="E10" s="12"/>
+      <c r="E10" s="13"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A11" s="12"/>
+      <c r="A11" s="13"/>
       <c r="B11" s="1" t="s">
         <v>26</v>
       </c>
@@ -1952,10 +1973,10 @@
       <c r="D11" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="E11" s="12"/>
+      <c r="E11" s="13"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A12" s="12"/>
+      <c r="A12" s="13"/>
       <c r="B12" s="1" t="s">
         <v>52</v>
       </c>
@@ -1965,10 +1986,10 @@
       <c r="D12" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="E12" s="12"/>
+      <c r="E12" s="13"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A13" s="12"/>
+      <c r="A13" s="13"/>
       <c r="B13" s="1" t="s">
         <v>54</v>
       </c>
@@ -1978,10 +1999,10 @@
       <c r="D13" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="E13" s="12"/>
+      <c r="E13" s="13"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A14" s="12"/>
+      <c r="A14" s="13"/>
       <c r="B14" s="1" t="s">
         <v>141</v>
       </c>
@@ -1991,10 +2012,10 @@
       <c r="D14" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E14" s="12"/>
+      <c r="E14" s="13"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A15" s="12"/>
+      <c r="A15" s="13"/>
       <c r="B15" s="1" t="s">
         <v>10</v>
       </c>
@@ -2004,10 +2025,10 @@
       <c r="D15" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="E15" s="12"/>
+      <c r="E15" s="13"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A16" s="12"/>
+      <c r="A16" s="13"/>
       <c r="B16" s="1" t="s">
         <v>11</v>
       </c>
@@ -2017,14 +2038,14 @@
       <c r="D16" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="E16" s="12"/>
+      <c r="E16" s="13"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="4"/>
       <c r="E17" s="4"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A18" s="12" t="s">
+      <c r="A18" s="13" t="s">
         <v>32</v>
       </c>
       <c r="B18" s="1" t="s">
@@ -2036,12 +2057,12 @@
       <c r="D18" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="E18" s="12" t="s">
+      <c r="E18" s="13" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A19" s="12"/>
+      <c r="A19" s="13"/>
       <c r="B19" s="1" t="s">
         <v>26</v>
       </c>
@@ -2051,10 +2072,10 @@
       <c r="D19" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="E19" s="12"/>
+      <c r="E19" s="13"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A20" s="12"/>
+      <c r="A20" s="13"/>
       <c r="B20" s="1" t="s">
         <v>27</v>
       </c>
@@ -2064,10 +2085,10 @@
       <c r="D20" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="E20" s="12"/>
+      <c r="E20" s="13"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A21" s="12"/>
+      <c r="A21" s="13"/>
       <c r="B21" s="1" t="s">
         <v>129</v>
       </c>
@@ -2077,10 +2098,10 @@
       <c r="D21" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="E21" s="12"/>
+      <c r="E21" s="13"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A22" s="12"/>
+      <c r="A22" s="13"/>
       <c r="B22" s="1" t="s">
         <v>141</v>
       </c>
@@ -2090,10 +2111,10 @@
       <c r="D22" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E22" s="12"/>
+      <c r="E22" s="13"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A23" s="12"/>
+      <c r="A23" s="13"/>
       <c r="B23" s="1" t="s">
         <v>10</v>
       </c>
@@ -2103,10 +2124,10 @@
       <c r="D23" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="E23" s="12"/>
+      <c r="E23" s="13"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A24" s="12"/>
+      <c r="A24" s="13"/>
       <c r="B24" s="1" t="s">
         <v>11</v>
       </c>
@@ -2116,14 +2137,14 @@
       <c r="D24" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="E24" s="12"/>
+      <c r="E24" s="13"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" s="4"/>
       <c r="E25" s="4"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A26" s="12" t="s">
+      <c r="A26" s="13" t="s">
         <v>33</v>
       </c>
       <c r="B26" s="1" t="s">
@@ -2135,12 +2156,12 @@
       <c r="D26" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="E26" s="12" t="s">
+      <c r="E26" s="13" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A27" s="12"/>
+      <c r="A27" s="13"/>
       <c r="B27" s="1" t="s">
         <v>26</v>
       </c>
@@ -2150,10 +2171,10 @@
       <c r="D27" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="E27" s="12"/>
+      <c r="E27" s="13"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A28" s="12"/>
+      <c r="A28" s="13"/>
       <c r="B28" s="1" t="s">
         <v>27</v>
       </c>
@@ -2163,10 +2184,10 @@
       <c r="D28" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="E28" s="12"/>
+      <c r="E28" s="13"/>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A29" s="12"/>
+      <c r="A29" s="13"/>
       <c r="B29" s="1" t="s">
         <v>34</v>
       </c>
@@ -2176,10 +2197,10 @@
       <c r="D29" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E29" s="12"/>
+      <c r="E29" s="13"/>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A30" s="12"/>
+      <c r="A30" s="13"/>
       <c r="B30" s="1" t="s">
         <v>36</v>
       </c>
@@ -2189,10 +2210,10 @@
       <c r="D30" s="1" t="s">
         <v>301</v>
       </c>
-      <c r="E30" s="12"/>
+      <c r="E30" s="13"/>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A31" s="12"/>
+      <c r="A31" s="13"/>
       <c r="B31" s="1" t="s">
         <v>37</v>
       </c>
@@ -2202,10 +2223,10 @@
       <c r="D31" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="E31" s="12"/>
+      <c r="E31" s="13"/>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A32" s="12"/>
+      <c r="A32" s="13"/>
       <c r="B32" s="1" t="s">
         <v>38</v>
       </c>
@@ -2215,10 +2236,10 @@
       <c r="D32" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="E32" s="12"/>
+      <c r="E32" s="13"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A33" s="12"/>
+      <c r="A33" s="13"/>
       <c r="B33" s="1" t="s">
         <v>40</v>
       </c>
@@ -2228,10 +2249,10 @@
       <c r="D33" s="1" t="s">
         <v>298</v>
       </c>
-      <c r="E33" s="12"/>
+      <c r="E33" s="13"/>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A34" s="12"/>
+      <c r="A34" s="13"/>
       <c r="B34" s="1" t="s">
         <v>42</v>
       </c>
@@ -2241,10 +2262,10 @@
       <c r="D34" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="E34" s="12"/>
+      <c r="E34" s="13"/>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A35" s="12"/>
+      <c r="A35" s="13"/>
       <c r="B35" s="1" t="s">
         <v>129</v>
       </c>
@@ -2254,10 +2275,10 @@
       <c r="D35" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="E35" s="12"/>
+      <c r="E35" s="13"/>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A36" s="12"/>
+      <c r="A36" s="13"/>
       <c r="B36" s="1" t="s">
         <v>141</v>
       </c>
@@ -2267,10 +2288,10 @@
       <c r="D36" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E36" s="12"/>
+      <c r="E36" s="13"/>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A37" s="12"/>
+      <c r="A37" s="13"/>
       <c r="B37" s="1" t="s">
         <v>10</v>
       </c>
@@ -2280,10 +2301,10 @@
       <c r="D37" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="E37" s="12"/>
+      <c r="E37" s="13"/>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A38" s="12"/>
+      <c r="A38" s="13"/>
       <c r="B38" s="1" t="s">
         <v>11</v>
       </c>
@@ -2293,15 +2314,15 @@
       <c r="D38" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="E38" s="12"/>
+      <c r="E38" s="13"/>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A39" s="4"/>
       <c r="E39" s="4"/>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A40" s="12" t="s">
-        <v>330</v>
+      <c r="A40" s="13" t="s">
+        <v>329</v>
       </c>
       <c r="B40" s="1" t="s">
         <v>5</v>
@@ -2312,12 +2333,12 @@
       <c r="D40" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="E40" s="12" t="s">
+      <c r="E40" s="13" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A41" s="12"/>
+      <c r="A41" s="13"/>
       <c r="B41" s="1" t="s">
         <v>43</v>
       </c>
@@ -2327,10 +2348,10 @@
       <c r="D41" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="E41" s="12"/>
+      <c r="E41" s="13"/>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A42" s="12"/>
+      <c r="A42" s="13"/>
       <c r="B42" s="1" t="s">
         <v>44</v>
       </c>
@@ -2340,10 +2361,10 @@
       <c r="D42" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="E42" s="12"/>
+      <c r="E42" s="13"/>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A43" s="12"/>
+      <c r="A43" s="13"/>
       <c r="B43" s="1" t="s">
         <v>141</v>
       </c>
@@ -2353,10 +2374,10 @@
       <c r="D43" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E43" s="12"/>
+      <c r="E43" s="13"/>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A44" s="12"/>
+      <c r="A44" s="13"/>
       <c r="B44" s="1" t="s">
         <v>10</v>
       </c>
@@ -2366,10 +2387,10 @@
       <c r="D44" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="E44" s="12"/>
+      <c r="E44" s="13"/>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A45" s="12"/>
+      <c r="A45" s="13"/>
       <c r="B45" s="1" t="s">
         <v>11</v>
       </c>
@@ -2379,15 +2400,15 @@
       <c r="D45" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="E45" s="12"/>
+      <c r="E45" s="13"/>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A46" s="4"/>
       <c r="E46" s="4"/>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A47" s="12" t="s">
-        <v>331</v>
+      <c r="A47" s="13" t="s">
+        <v>330</v>
       </c>
       <c r="B47" s="1" t="s">
         <v>5</v>
@@ -2398,12 +2419,12 @@
       <c r="D47" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="E47" s="12" t="s">
+      <c r="E47" s="13" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A48" s="12"/>
+      <c r="A48" s="13"/>
       <c r="B48" s="1" t="s">
         <v>43</v>
       </c>
@@ -2413,10 +2434,10 @@
       <c r="D48" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="E48" s="12"/>
+      <c r="E48" s="13"/>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A49" s="12"/>
+      <c r="A49" s="13"/>
       <c r="B49" s="1" t="s">
         <v>45</v>
       </c>
@@ -2426,10 +2447,10 @@
       <c r="D49" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="E49" s="12"/>
+      <c r="E49" s="13"/>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A50" s="12"/>
+      <c r="A50" s="13"/>
       <c r="B50" s="1" t="s">
         <v>141</v>
       </c>
@@ -2439,10 +2460,10 @@
       <c r="D50" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E50" s="12"/>
+      <c r="E50" s="13"/>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A51" s="12"/>
+      <c r="A51" s="13"/>
       <c r="B51" s="1" t="s">
         <v>10</v>
       </c>
@@ -2452,10 +2473,10 @@
       <c r="D51" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="E51" s="12"/>
+      <c r="E51" s="13"/>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A52" s="12"/>
+      <c r="A52" s="13"/>
       <c r="B52" s="1" t="s">
         <v>11</v>
       </c>
@@ -2465,15 +2486,15 @@
       <c r="D52" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="E52" s="12"/>
+      <c r="E52" s="13"/>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A53" s="4"/>
       <c r="E53" s="4"/>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A54" s="12" t="s">
-        <v>332</v>
+      <c r="A54" s="13" t="s">
+        <v>331</v>
       </c>
       <c r="B54" s="1" t="s">
         <v>5</v>
@@ -2484,12 +2505,12 @@
       <c r="D54" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="E54" s="12" t="s">
+      <c r="E54" s="13" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A55" s="12"/>
+      <c r="A55" s="13"/>
       <c r="B55" s="1" t="s">
         <v>43</v>
       </c>
@@ -2499,10 +2520,10 @@
       <c r="D55" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="E55" s="12"/>
+      <c r="E55" s="13"/>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A56" s="12"/>
+      <c r="A56" s="13"/>
       <c r="B56" s="1" t="s">
         <v>44</v>
       </c>
@@ -2512,10 +2533,10 @@
       <c r="D56" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="E56" s="12"/>
+      <c r="E56" s="13"/>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A57" s="12"/>
+      <c r="A57" s="13"/>
       <c r="B57" s="1" t="s">
         <v>141</v>
       </c>
@@ -2525,10 +2546,10 @@
       <c r="D57" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E57" s="12"/>
+      <c r="E57" s="13"/>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A58" s="12"/>
+      <c r="A58" s="13"/>
       <c r="B58" s="1" t="s">
         <v>10</v>
       </c>
@@ -2538,10 +2559,10 @@
       <c r="D58" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="E58" s="12"/>
+      <c r="E58" s="13"/>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A59" s="12"/>
+      <c r="A59" s="13"/>
       <c r="B59" s="1" t="s">
         <v>11</v>
       </c>
@@ -2551,14 +2572,14 @@
       <c r="D59" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="E59" s="12"/>
+      <c r="E59" s="13"/>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A60" s="4"/>
       <c r="E60" s="4"/>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A61" s="12" t="s">
+      <c r="A61" s="13" t="s">
         <v>233</v>
       </c>
       <c r="B61" s="1" t="s">
@@ -2570,12 +2591,12 @@
       <c r="D61" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="E61" s="12" t="s">
+      <c r="E61" s="13" t="s">
         <v>234</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A62" s="12"/>
+      <c r="A62" s="13"/>
       <c r="B62" s="2" t="s">
         <v>229</v>
       </c>
@@ -2585,10 +2606,10 @@
       <c r="D62" s="2" t="s">
         <v>230</v>
       </c>
-      <c r="E62" s="12"/>
+      <c r="E62" s="13"/>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A63" s="12"/>
+      <c r="A63" s="13"/>
       <c r="B63" s="2" t="s">
         <v>231</v>
       </c>
@@ -2598,7 +2619,7 @@
       <c r="D63" s="2" t="s">
         <v>232</v>
       </c>
-      <c r="E63" s="12"/>
+      <c r="E63" s="13"/>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A64" s="4"/>
@@ -2608,7 +2629,7 @@
       <c r="E64" s="4"/>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A65" s="12" t="s">
+      <c r="A65" s="13" t="s">
         <v>255</v>
       </c>
       <c r="B65" s="1" t="s">
@@ -2620,12 +2641,12 @@
       <c r="D65" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="E65" s="12" t="s">
+      <c r="E65" s="13" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A66" s="12"/>
+      <c r="A66" s="13"/>
       <c r="B66" s="1" t="s">
         <v>46</v>
       </c>
@@ -2635,10 +2656,10 @@
       <c r="D66" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="E66" s="12"/>
+      <c r="E66" s="13"/>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A67" s="12"/>
+      <c r="A67" s="13"/>
       <c r="B67" s="1" t="s">
         <v>52</v>
       </c>
@@ -2648,10 +2669,10 @@
       <c r="D67" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="E67" s="12"/>
+      <c r="E67" s="13"/>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A68" s="12"/>
+      <c r="A68" s="13"/>
       <c r="B68" s="1" t="s">
         <v>7</v>
       </c>
@@ -2661,10 +2682,10 @@
       <c r="D68" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E68" s="12"/>
+      <c r="E68" s="13"/>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A69" s="12"/>
+      <c r="A69" s="13"/>
       <c r="B69" s="1" t="s">
         <v>8</v>
       </c>
@@ -2674,10 +2695,10 @@
       <c r="D69" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E69" s="12"/>
+      <c r="E69" s="13"/>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A70" s="12"/>
+      <c r="A70" s="13"/>
       <c r="B70" s="1" t="s">
         <v>9</v>
       </c>
@@ -2687,10 +2708,10 @@
       <c r="D70" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E70" s="12"/>
+      <c r="E70" s="13"/>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A71" s="12"/>
+      <c r="A71" s="13"/>
       <c r="B71" s="1" t="s">
         <v>49</v>
       </c>
@@ -2700,10 +2721,10 @@
       <c r="D71" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="E71" s="12"/>
+      <c r="E71" s="13"/>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A72" s="12"/>
+      <c r="A72" s="13"/>
       <c r="B72" s="1" t="s">
         <v>26</v>
       </c>
@@ -2713,10 +2734,10 @@
       <c r="D72" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="E72" s="12"/>
+      <c r="E72" s="13"/>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A73" s="12"/>
+      <c r="A73" s="13"/>
       <c r="B73" s="1" t="s">
         <v>54</v>
       </c>
@@ -2726,10 +2747,10 @@
       <c r="D73" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="E73" s="12"/>
+      <c r="E73" s="13"/>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A74" s="12"/>
+      <c r="A74" s="13"/>
       <c r="B74" s="2" t="s">
         <v>256</v>
       </c>
@@ -2739,10 +2760,10 @@
       <c r="D74" s="5" t="s">
         <v>247</v>
       </c>
-      <c r="E74" s="12"/>
+      <c r="E74" s="13"/>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A75" s="12"/>
+      <c r="A75" s="13"/>
       <c r="B75" s="1" t="s">
         <v>58</v>
       </c>
@@ -2752,10 +2773,10 @@
       <c r="D75" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="E75" s="12"/>
+      <c r="E75" s="13"/>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A76" s="12"/>
+      <c r="A76" s="13"/>
       <c r="B76" s="1" t="s">
         <v>59</v>
       </c>
@@ -2765,10 +2786,10 @@
       <c r="D76" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="E76" s="12"/>
+      <c r="E76" s="13"/>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A77" s="12"/>
+      <c r="A77" s="13"/>
       <c r="B77" s="1" t="s">
         <v>129</v>
       </c>
@@ -2778,10 +2799,10 @@
       <c r="D77" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="E77" s="12"/>
+      <c r="E77" s="13"/>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A78" s="12"/>
+      <c r="A78" s="13"/>
       <c r="B78" s="1" t="s">
         <v>141</v>
       </c>
@@ -2791,10 +2812,10 @@
       <c r="D78" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E78" s="12"/>
+      <c r="E78" s="13"/>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A79" s="12"/>
+      <c r="A79" s="13"/>
       <c r="B79" s="1" t="s">
         <v>10</v>
       </c>
@@ -2804,10 +2825,10 @@
       <c r="D79" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="E79" s="12"/>
+      <c r="E79" s="13"/>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A80" s="12"/>
+      <c r="A80" s="13"/>
       <c r="B80" s="1" t="s">
         <v>11</v>
       </c>
@@ -2817,14 +2838,14 @@
       <c r="D80" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="E80" s="12"/>
+      <c r="E80" s="13"/>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A81" s="4"/>
       <c r="E81" s="4"/>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A82" s="12" t="s">
+      <c r="A82" s="13" t="s">
         <v>62</v>
       </c>
       <c r="B82" s="1" t="s">
@@ -2836,12 +2857,12 @@
       <c r="D82" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="E82" s="12" t="s">
+      <c r="E82" s="13" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A83" s="12"/>
+      <c r="A83" s="13"/>
       <c r="B83" s="1" t="s">
         <v>43</v>
       </c>
@@ -2851,10 +2872,10 @@
       <c r="D83" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="E83" s="12"/>
+      <c r="E83" s="13"/>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A84" s="12"/>
+      <c r="A84" s="13"/>
       <c r="B84" s="1" t="s">
         <v>63</v>
       </c>
@@ -2864,10 +2885,10 @@
       <c r="D84" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="E84" s="12"/>
+      <c r="E84" s="13"/>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A85" s="12"/>
+      <c r="A85" s="13"/>
       <c r="B85" s="1" t="s">
         <v>141</v>
       </c>
@@ -2877,10 +2898,10 @@
       <c r="D85" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E85" s="12"/>
+      <c r="E85" s="13"/>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A86" s="12"/>
+      <c r="A86" s="13"/>
       <c r="B86" s="1" t="s">
         <v>10</v>
       </c>
@@ -2890,10 +2911,10 @@
       <c r="D86" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="E86" s="12"/>
+      <c r="E86" s="13"/>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A87" s="12"/>
+      <c r="A87" s="13"/>
       <c r="B87" s="1" t="s">
         <v>11</v>
       </c>
@@ -2903,14 +2924,14 @@
       <c r="D87" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="E87" s="12"/>
+      <c r="E87" s="13"/>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A88" s="4"/>
       <c r="E88" s="4"/>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A89" s="12" t="s">
+      <c r="A89" s="13" t="s">
         <v>65</v>
       </c>
       <c r="B89" s="1" t="s">
@@ -2922,12 +2943,12 @@
       <c r="D89" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="E89" s="12" t="s">
+      <c r="E89" s="13" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A90" s="12"/>
+      <c r="A90" s="13"/>
       <c r="B90" s="1" t="s">
         <v>44</v>
       </c>
@@ -2937,10 +2958,10 @@
       <c r="D90" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="E90" s="12"/>
+      <c r="E90" s="13"/>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A91" s="12"/>
+      <c r="A91" s="13"/>
       <c r="B91" s="1" t="s">
         <v>66</v>
       </c>
@@ -2950,10 +2971,10 @@
       <c r="D91" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="E91" s="12"/>
+      <c r="E91" s="13"/>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A92" s="12"/>
+      <c r="A92" s="13"/>
       <c r="B92" s="1" t="s">
         <v>68</v>
       </c>
@@ -2963,10 +2984,10 @@
       <c r="D92" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="E92" s="12"/>
+      <c r="E92" s="13"/>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A93" s="12"/>
+      <c r="A93" s="13"/>
       <c r="B93" s="1" t="s">
         <v>141</v>
       </c>
@@ -2976,10 +2997,10 @@
       <c r="D93" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E93" s="12"/>
+      <c r="E93" s="13"/>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A94" s="12"/>
+      <c r="A94" s="13"/>
       <c r="B94" s="1" t="s">
         <v>10</v>
       </c>
@@ -2989,10 +3010,10 @@
       <c r="D94" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="E94" s="12"/>
+      <c r="E94" s="13"/>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A95" s="12"/>
+      <c r="A95" s="13"/>
       <c r="B95" s="1" t="s">
         <v>11</v>
       </c>
@@ -3002,14 +3023,14 @@
       <c r="D95" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="E95" s="12"/>
+      <c r="E95" s="13"/>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A96" s="4"/>
       <c r="E96" s="4"/>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A97" s="12" t="s">
+      <c r="A97" s="13" t="s">
         <v>71</v>
       </c>
       <c r="B97" s="1" t="s">
@@ -3021,12 +3042,12 @@
       <c r="D97" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="E97" s="12" t="s">
+      <c r="E97" s="13" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A98" s="12"/>
+      <c r="A98" s="13"/>
       <c r="B98" s="1" t="s">
         <v>26</v>
       </c>
@@ -3036,10 +3057,10 @@
       <c r="D98" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="E98" s="12"/>
+      <c r="E98" s="13"/>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A99" s="12"/>
+      <c r="A99" s="13"/>
       <c r="B99" s="2" t="s">
         <v>256</v>
       </c>
@@ -3049,10 +3070,10 @@
       <c r="D99" s="2" t="s">
         <v>246</v>
       </c>
-      <c r="E99" s="12"/>
+      <c r="E99" s="13"/>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A100" s="12"/>
+      <c r="A100" s="13"/>
       <c r="B100" s="1" t="s">
         <v>79</v>
       </c>
@@ -3062,10 +3083,10 @@
       <c r="D100" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="E100" s="12"/>
+      <c r="E100" s="13"/>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A101" s="12"/>
+      <c r="A101" s="13"/>
       <c r="B101" s="1" t="s">
         <v>83</v>
       </c>
@@ -3075,10 +3096,10 @@
       <c r="D101" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="E101" s="12"/>
+      <c r="E101" s="13"/>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A102" s="12"/>
+      <c r="A102" s="13"/>
       <c r="B102" s="1" t="s">
         <v>84</v>
       </c>
@@ -3088,10 +3109,10 @@
       <c r="D102" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="E102" s="12"/>
+      <c r="E102" s="13"/>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A103" s="12"/>
+      <c r="A103" s="13"/>
       <c r="B103" s="1" t="s">
         <v>129</v>
       </c>
@@ -3101,10 +3122,10 @@
       <c r="D103" s="1" t="s">
         <v>219</v>
       </c>
-      <c r="E103" s="12"/>
+      <c r="E103" s="13"/>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A104" s="12"/>
+      <c r="A104" s="13"/>
       <c r="B104" s="1" t="s">
         <v>141</v>
       </c>
@@ -3114,10 +3135,10 @@
       <c r="D104" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E104" s="12"/>
+      <c r="E104" s="13"/>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A105" s="12"/>
+      <c r="A105" s="13"/>
       <c r="B105" s="1" t="s">
         <v>10</v>
       </c>
@@ -3127,10 +3148,10 @@
       <c r="D105" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="E105" s="12"/>
+      <c r="E105" s="13"/>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A106" s="12"/>
+      <c r="A106" s="13"/>
       <c r="B106" s="1" t="s">
         <v>11</v>
       </c>
@@ -3140,14 +3161,14 @@
       <c r="D106" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="E106" s="12"/>
+      <c r="E106" s="13"/>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A107" s="4"/>
       <c r="E107" s="4"/>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A108" s="12" t="s">
+      <c r="A108" s="13" t="s">
         <v>86</v>
       </c>
       <c r="B108" s="1" t="s">
@@ -3159,12 +3180,12 @@
       <c r="D108" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="E108" s="12" t="s">
+      <c r="E108" s="13" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A109" s="12"/>
+      <c r="A109" s="13"/>
       <c r="B109" s="1" t="s">
         <v>26</v>
       </c>
@@ -3174,10 +3195,10 @@
       <c r="D109" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="E109" s="12"/>
+      <c r="E109" s="13"/>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A110" s="12"/>
+      <c r="A110" s="13"/>
       <c r="B110" s="1" t="s">
         <v>141</v>
       </c>
@@ -3187,10 +3208,10 @@
       <c r="D110" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E110" s="12"/>
+      <c r="E110" s="13"/>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A111" s="12"/>
+      <c r="A111" s="13"/>
       <c r="B111" s="1" t="s">
         <v>10</v>
       </c>
@@ -3200,10 +3221,10 @@
       <c r="D111" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="E111" s="12"/>
+      <c r="E111" s="13"/>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A112" s="12"/>
+      <c r="A112" s="13"/>
       <c r="B112" s="1" t="s">
         <v>11</v>
       </c>
@@ -3213,14 +3234,14 @@
       <c r="D112" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="E112" s="12"/>
+      <c r="E112" s="13"/>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A113" s="4"/>
       <c r="E113" s="4"/>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A114" s="12" t="s">
+      <c r="A114" s="13" t="s">
         <v>85</v>
       </c>
       <c r="B114" s="1" t="s">
@@ -3232,12 +3253,12 @@
       <c r="D114" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="E114" s="12" t="s">
+      <c r="E114" s="13" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A115" s="12"/>
+      <c r="A115" s="13"/>
       <c r="B115" s="1" t="s">
         <v>88</v>
       </c>
@@ -3247,10 +3268,10 @@
       <c r="D115" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="E115" s="12"/>
+      <c r="E115" s="13"/>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A116" s="12"/>
+      <c r="A116" s="13"/>
       <c r="B116" s="1" t="s">
         <v>142</v>
       </c>
@@ -3260,10 +3281,10 @@
       <c r="D116" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="E116" s="12"/>
+      <c r="E116" s="13"/>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A117" s="12"/>
+      <c r="A117" s="13"/>
       <c r="B117" s="1" t="s">
         <v>121</v>
       </c>
@@ -3273,10 +3294,10 @@
       <c r="D117" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="E117" s="12"/>
+      <c r="E117" s="13"/>
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A118" s="12"/>
+      <c r="A118" s="13"/>
       <c r="B118" s="1" t="s">
         <v>113</v>
       </c>
@@ -3286,10 +3307,10 @@
       <c r="D118" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="E118" s="12"/>
+      <c r="E118" s="13"/>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A119" s="12"/>
+      <c r="A119" s="13"/>
       <c r="B119" s="1" t="s">
         <v>114</v>
       </c>
@@ -3299,10 +3320,10 @@
       <c r="D119" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="E119" s="12"/>
+      <c r="E119" s="13"/>
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A120" s="12"/>
+      <c r="A120" s="13"/>
       <c r="B120" s="1" t="s">
         <v>143</v>
       </c>
@@ -3312,10 +3333,10 @@
       <c r="D120" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="E120" s="12"/>
+      <c r="E120" s="13"/>
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A121" s="12"/>
+      <c r="A121" s="13"/>
       <c r="B121" s="1" t="s">
         <v>144</v>
       </c>
@@ -3325,10 +3346,10 @@
       <c r="D121" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="E121" s="12"/>
+      <c r="E121" s="13"/>
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A122" s="12"/>
+      <c r="A122" s="13"/>
       <c r="B122" s="1" t="s">
         <v>101</v>
       </c>
@@ -3338,10 +3359,10 @@
       <c r="D122" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="E122" s="12"/>
+      <c r="E122" s="13"/>
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A123" s="12"/>
+      <c r="A123" s="13"/>
       <c r="B123" s="1" t="s">
         <v>102</v>
       </c>
@@ -3351,10 +3372,10 @@
       <c r="D123" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="E123" s="12"/>
+      <c r="E123" s="13"/>
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A124" s="12"/>
+      <c r="A124" s="13"/>
       <c r="B124" s="1" t="s">
         <v>104</v>
       </c>
@@ -3364,10 +3385,10 @@
       <c r="D124" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="E124" s="12"/>
+      <c r="E124" s="13"/>
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A125" s="12"/>
+      <c r="A125" s="13"/>
       <c r="B125" s="1" t="s">
         <v>92</v>
       </c>
@@ -3377,10 +3398,10 @@
       <c r="D125" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="E125" s="12"/>
+      <c r="E125" s="13"/>
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A126" s="12"/>
+      <c r="A126" s="13"/>
       <c r="B126" s="1" t="s">
         <v>103</v>
       </c>
@@ -3390,10 +3411,10 @@
       <c r="D126" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="E126" s="12"/>
+      <c r="E126" s="13"/>
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A127" s="12"/>
+      <c r="A127" s="13"/>
       <c r="B127" s="1" t="s">
         <v>93</v>
       </c>
@@ -3403,10 +3424,10 @@
       <c r="D127" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="E127" s="12"/>
+      <c r="E127" s="13"/>
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A128" s="12"/>
+      <c r="A128" s="13"/>
       <c r="B128" s="1" t="s">
         <v>105</v>
       </c>
@@ -3416,10 +3437,10 @@
       <c r="D128" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="E128" s="12"/>
+      <c r="E128" s="13"/>
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A129" s="12"/>
+      <c r="A129" s="13"/>
       <c r="B129" s="1" t="s">
         <v>94</v>
       </c>
@@ -3429,10 +3450,10 @@
       <c r="D129" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="E129" s="12"/>
+      <c r="E129" s="13"/>
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A130" s="12"/>
+      <c r="A130" s="13"/>
       <c r="B130" s="1" t="s">
         <v>95</v>
       </c>
@@ -3442,10 +3463,10 @@
       <c r="D130" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="E130" s="12"/>
+      <c r="E130" s="13"/>
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A131" s="12"/>
+      <c r="A131" s="13"/>
       <c r="B131" s="1" t="s">
         <v>145</v>
       </c>
@@ -3455,10 +3476,10 @@
       <c r="D131" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="E131" s="12"/>
+      <c r="E131" s="13"/>
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A132" s="12"/>
+      <c r="A132" s="13"/>
       <c r="B132" s="1" t="s">
         <v>96</v>
       </c>
@@ -3468,10 +3489,10 @@
       <c r="D132" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="E132" s="12"/>
+      <c r="E132" s="13"/>
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A133" s="12"/>
+      <c r="A133" s="13"/>
       <c r="B133" s="1" t="s">
         <v>97</v>
       </c>
@@ -3481,10 +3502,10 @@
       <c r="D133" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="E133" s="12"/>
+      <c r="E133" s="13"/>
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A134" s="12"/>
+      <c r="A134" s="13"/>
       <c r="B134" s="1" t="s">
         <v>98</v>
       </c>
@@ -3494,10 +3515,10 @@
       <c r="D134" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="E134" s="12"/>
+      <c r="E134" s="13"/>
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A135" s="12"/>
+      <c r="A135" s="13"/>
       <c r="B135" s="1" t="s">
         <v>99</v>
       </c>
@@ -3507,10 +3528,10 @@
       <c r="D135" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="E135" s="12"/>
+      <c r="E135" s="13"/>
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A136" s="12"/>
+      <c r="A136" s="13"/>
       <c r="B136" s="1" t="s">
         <v>100</v>
       </c>
@@ -3520,10 +3541,10 @@
       <c r="D136" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="E136" s="12"/>
+      <c r="E136" s="13"/>
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A137" s="12"/>
+      <c r="A137" s="13"/>
       <c r="B137" s="2" t="s">
         <v>252</v>
       </c>
@@ -3533,10 +3554,10 @@
       <c r="D137" s="2" t="s">
         <v>295</v>
       </c>
-      <c r="E137" s="12"/>
+      <c r="E137" s="13"/>
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A138" s="12"/>
+      <c r="A138" s="13"/>
       <c r="B138" s="1" t="s">
         <v>115</v>
       </c>
@@ -3546,10 +3567,10 @@
       <c r="D138" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="E138" s="12"/>
+      <c r="E138" s="13"/>
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A139" s="12"/>
+      <c r="A139" s="13"/>
       <c r="B139" s="1" t="s">
         <v>116</v>
       </c>
@@ -3559,10 +3580,10 @@
       <c r="D139" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="E139" s="12"/>
+      <c r="E139" s="13"/>
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A140" s="12"/>
+      <c r="A140" s="13"/>
       <c r="B140" s="2" t="s">
         <v>299</v>
       </c>
@@ -3572,10 +3593,10 @@
       <c r="D140" s="2" t="s">
         <v>300</v>
       </c>
-      <c r="E140" s="12"/>
+      <c r="E140" s="13"/>
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A141" s="12"/>
+      <c r="A141" s="13"/>
       <c r="B141" s="1" t="s">
         <v>129</v>
       </c>
@@ -3585,10 +3606,10 @@
       <c r="D141" s="1" t="s">
         <v>250</v>
       </c>
-      <c r="E141" s="12"/>
+      <c r="E141" s="13"/>
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A142" s="12"/>
+      <c r="A142" s="13"/>
       <c r="B142" s="1" t="s">
         <v>141</v>
       </c>
@@ -3598,10 +3619,10 @@
       <c r="D142" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E142" s="12"/>
+      <c r="E142" s="13"/>
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A143" s="12"/>
+      <c r="A143" s="13"/>
       <c r="B143" s="1" t="s">
         <v>10</v>
       </c>
@@ -3611,10 +3632,10 @@
       <c r="D143" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="E143" s="12"/>
+      <c r="E143" s="13"/>
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A144" s="12"/>
+      <c r="A144" s="13"/>
       <c r="B144" s="1" t="s">
         <v>11</v>
       </c>
@@ -3624,14 +3645,14 @@
       <c r="D144" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="E144" s="12"/>
+      <c r="E144" s="13"/>
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A145" s="4"/>
       <c r="E145" s="4"/>
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A146" s="12" t="s">
+      <c r="A146" s="13" t="s">
         <v>125</v>
       </c>
       <c r="B146" s="1" t="s">
@@ -3643,12 +3664,12 @@
       <c r="D146" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="E146" s="12" t="s">
+      <c r="E146" s="13" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A147" s="12"/>
+      <c r="A147" s="13"/>
       <c r="B147" s="1" t="s">
         <v>123</v>
       </c>
@@ -3658,10 +3679,10 @@
       <c r="D147" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="E147" s="12"/>
+      <c r="E147" s="13"/>
     </row>
     <row r="148" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A148" s="12"/>
+      <c r="A148" s="13"/>
       <c r="B148" s="1" t="s">
         <v>129</v>
       </c>
@@ -3671,10 +3692,10 @@
       <c r="D148" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="E148" s="12"/>
+      <c r="E148" s="13"/>
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A149" s="12"/>
+      <c r="A149" s="13"/>
       <c r="B149" s="1" t="s">
         <v>126</v>
       </c>
@@ -3684,10 +3705,10 @@
       <c r="D149" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="E149" s="12"/>
+      <c r="E149" s="13"/>
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A150" s="12"/>
+      <c r="A150" s="13"/>
       <c r="B150" s="1" t="s">
         <v>141</v>
       </c>
@@ -3697,10 +3718,10 @@
       <c r="D150" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E150" s="12"/>
+      <c r="E150" s="13"/>
     </row>
     <row r="151" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A151" s="12"/>
+      <c r="A151" s="13"/>
       <c r="B151" s="1" t="s">
         <v>10</v>
       </c>
@@ -3710,10 +3731,10 @@
       <c r="D151" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="E151" s="12"/>
+      <c r="E151" s="13"/>
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A152" s="12"/>
+      <c r="A152" s="13"/>
       <c r="B152" s="1" t="s">
         <v>11</v>
       </c>
@@ -3723,14 +3744,14 @@
       <c r="D152" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="E152" s="12"/>
+      <c r="E152" s="13"/>
     </row>
     <row r="153" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A153" s="4"/>
       <c r="E153" s="4"/>
     </row>
     <row r="154" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A154" s="13" t="s">
+      <c r="A154" s="14" t="s">
         <v>251</v>
       </c>
       <c r="B154" s="1" t="s">
@@ -3742,12 +3763,12 @@
       <c r="D154" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="E154" s="12" t="s">
+      <c r="E154" s="13" t="s">
         <v>296</v>
       </c>
     </row>
     <row r="155" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A155" s="13"/>
+      <c r="A155" s="14"/>
       <c r="B155" s="1" t="s">
         <v>26</v>
       </c>
@@ -3757,14 +3778,14 @@
       <c r="D155" s="1" t="s">
         <v>228</v>
       </c>
-      <c r="E155" s="12"/>
+      <c r="E155" s="13"/>
     </row>
     <row r="156" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A156" s="8"/>
       <c r="E156" s="4"/>
     </row>
     <row r="157" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A157" s="12" t="s">
+      <c r="A157" s="13" t="s">
         <v>127</v>
       </c>
       <c r="B157" s="1" t="s">
@@ -3776,12 +3797,12 @@
       <c r="D157" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="E157" s="12" t="s">
+      <c r="E157" s="13" t="s">
         <v>297</v>
       </c>
     </row>
     <row r="158" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A158" s="12"/>
+      <c r="A158" s="13"/>
       <c r="B158" s="1" t="s">
         <v>128</v>
       </c>
@@ -3791,10 +3812,10 @@
       <c r="D158" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="E158" s="12"/>
+      <c r="E158" s="13"/>
     </row>
     <row r="159" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A159" s="12"/>
+      <c r="A159" s="13"/>
       <c r="B159" s="1" t="s">
         <v>126</v>
       </c>
@@ -3804,23 +3825,23 @@
       <c r="D159" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="E159" s="12"/>
+      <c r="E159" s="13"/>
     </row>
     <row r="160" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A160" s="12"/>
-      <c r="B160" s="14" t="s">
+      <c r="A160" s="13"/>
+      <c r="B160" s="12" t="s">
+        <v>332</v>
+      </c>
+      <c r="C160" s="12" t="s">
         <v>333</v>
       </c>
-      <c r="C160" s="14" t="s">
+      <c r="D160" s="12" t="s">
         <v>334</v>
       </c>
-      <c r="D160" s="14" t="s">
-        <v>335</v>
-      </c>
-      <c r="E160" s="12"/>
+      <c r="E160" s="13"/>
     </row>
     <row r="161" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A161" s="12"/>
+      <c r="A161" s="13"/>
       <c r="B161" s="1" t="s">
         <v>141</v>
       </c>
@@ -3830,10 +3851,10 @@
       <c r="D161" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E161" s="12"/>
+      <c r="E161" s="13"/>
     </row>
     <row r="162" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A162" s="12"/>
+      <c r="A162" s="13"/>
       <c r="B162" s="1" t="s">
         <v>10</v>
       </c>
@@ -3843,10 +3864,10 @@
       <c r="D162" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="E162" s="12"/>
+      <c r="E162" s="13"/>
     </row>
     <row r="163" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A163" s="12"/>
+      <c r="A163" s="13"/>
       <c r="B163" s="1" t="s">
         <v>11</v>
       </c>
@@ -3856,14 +3877,14 @@
       <c r="D163" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="E163" s="12"/>
+      <c r="E163" s="13"/>
     </row>
     <row r="164" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A164" s="4"/>
       <c r="E164" s="4"/>
     </row>
     <row r="165" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A165" s="12" t="s">
+      <c r="A165" s="7" t="s">
         <v>160</v>
       </c>
       <c r="B165" s="1" t="s">
@@ -3875,12 +3896,12 @@
       <c r="D165" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="E165" s="12" t="s">
+      <c r="E165" s="7" t="s">
         <v>200</v>
       </c>
     </row>
     <row r="166" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A166" s="12"/>
+      <c r="A166" s="7"/>
       <c r="B166" s="2" t="s">
         <v>26</v>
       </c>
@@ -3890,10 +3911,9 @@
       <c r="D166" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="E166" s="12"/>
     </row>
     <row r="167" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A167" s="12"/>
+      <c r="A167" s="7"/>
       <c r="B167" s="2" t="s">
         <v>162</v>
       </c>
@@ -3903,10 +3923,9 @@
       <c r="D167" s="2" t="s">
         <v>235</v>
       </c>
-      <c r="E167" s="12"/>
     </row>
     <row r="168" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A168" s="12"/>
+      <c r="A168" s="7"/>
       <c r="B168" s="1" t="s">
         <v>163</v>
       </c>
@@ -3916,10 +3935,9 @@
       <c r="D168" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="E168" s="12"/>
     </row>
     <row r="169" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A169" s="12"/>
+      <c r="A169" s="7"/>
       <c r="B169" s="2" t="s">
         <v>54</v>
       </c>
@@ -3929,11 +3947,10 @@
       <c r="D169" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="E169" s="12"/>
       <c r="J169" s="2"/>
     </row>
     <row r="170" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A170" s="12"/>
+      <c r="A170" s="7"/>
       <c r="B170" s="1" t="s">
         <v>46</v>
       </c>
@@ -3943,10 +3960,9 @@
       <c r="D170" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="E170" s="12"/>
     </row>
     <row r="171" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A171" s="12"/>
+      <c r="A171" s="7"/>
       <c r="B171" s="10" t="s">
         <v>185</v>
       </c>
@@ -3954,27 +3970,25 @@
         <v>173</v>
       </c>
       <c r="D171" s="10" t="s">
-        <v>320</v>
-      </c>
-      <c r="E171" s="12"/>
-    </row>
-    <row r="172" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A172" s="12"/>
-      <c r="B172" s="10" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="172" spans="1:10" s="7" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B172" s="17" t="s">
         <v>314</v>
       </c>
-      <c r="C172" s="10" t="s">
+      <c r="C172" s="17" t="s">
         <v>173</v>
       </c>
-      <c r="D172" s="10" t="s">
-        <v>319</v>
-      </c>
-      <c r="E172" s="12"/>
-      <c r="H172" s="2"/>
-      <c r="J172" s="2"/>
+      <c r="D172" s="18" t="s">
+        <v>337</v>
+      </c>
+      <c r="F172" s="16"/>
+      <c r="H172" s="15"/>
+      <c r="J172" s="15"/>
     </row>
     <row r="173" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A173" s="12"/>
+      <c r="A173" s="7"/>
       <c r="B173" s="10" t="s">
         <v>182</v>
       </c>
@@ -3984,12 +3998,11 @@
       <c r="D173" s="10" t="s">
         <v>315</v>
       </c>
-      <c r="E173" s="12"/>
       <c r="H173" s="2"/>
       <c r="J173" s="2"/>
     </row>
     <row r="174" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A174" s="12"/>
+      <c r="A174" s="7"/>
       <c r="B174" s="10" t="s">
         <v>183</v>
       </c>
@@ -3999,13 +4012,12 @@
       <c r="D174" s="10" t="s">
         <v>316</v>
       </c>
-      <c r="E174" s="12"/>
       <c r="H174" s="2"/>
       <c r="I174" s="2"/>
       <c r="J174" s="2"/>
     </row>
     <row r="175" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A175" s="12"/>
+      <c r="A175" s="7"/>
       <c r="B175" s="10" t="s">
         <v>195</v>
       </c>
@@ -4013,12 +4025,11 @@
         <v>173</v>
       </c>
       <c r="D175" s="10" t="s">
-        <v>321</v>
-      </c>
-      <c r="E175" s="12"/>
+        <v>320</v>
+      </c>
     </row>
     <row r="176" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A176" s="12"/>
+      <c r="A176" s="7"/>
       <c r="B176" s="2" t="s">
         <v>202</v>
       </c>
@@ -4028,10 +4039,9 @@
       <c r="D176" s="2" t="s">
         <v>318</v>
       </c>
-      <c r="E176" s="12"/>
-    </row>
-    <row r="177" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A177" s="12"/>
+    </row>
+    <row r="177" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A177" s="7"/>
       <c r="B177" s="10" t="s">
         <v>167</v>
       </c>
@@ -4041,10 +4051,9 @@
       <c r="D177" s="10" t="s">
         <v>313</v>
       </c>
-      <c r="E177" s="12"/>
-    </row>
-    <row r="178" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A178" s="12"/>
+    </row>
+    <row r="178" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A178" s="7"/>
       <c r="B178" s="2" t="s">
         <v>27</v>
       </c>
@@ -4054,10 +4063,9 @@
       <c r="D178" s="2" t="s">
         <v>196</v>
       </c>
-      <c r="E178" s="12"/>
-    </row>
-    <row r="179" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A179" s="12"/>
+    </row>
+    <row r="179" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A179" s="7"/>
       <c r="B179" s="10" t="s">
         <v>193</v>
       </c>
@@ -4067,10 +4075,9 @@
       <c r="D179" s="10" t="s">
         <v>311</v>
       </c>
-      <c r="E179" s="12"/>
-    </row>
-    <row r="180" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A180" s="12"/>
+    </row>
+    <row r="180" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A180" s="7"/>
       <c r="B180" s="10" t="s">
         <v>309</v>
       </c>
@@ -4080,12 +4087,11 @@
       <c r="D180" s="10" t="s">
         <v>310</v>
       </c>
-      <c r="E180" s="12"/>
-    </row>
-    <row r="181" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A181" s="12"/>
+    </row>
+    <row r="181" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A181" s="7"/>
       <c r="B181" s="10" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C181" s="10" t="s">
         <v>25</v>
@@ -4093,10 +4099,9 @@
       <c r="D181" s="10" t="s">
         <v>312</v>
       </c>
-      <c r="E181" s="12"/>
-    </row>
-    <row r="182" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A182" s="12"/>
+    </row>
+    <row r="182" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A182" s="7"/>
       <c r="B182" s="11" t="s">
         <v>186</v>
       </c>
@@ -4106,10 +4111,9 @@
       <c r="D182" s="11" t="s">
         <v>317</v>
       </c>
-      <c r="E182" s="12"/>
-    </row>
-    <row r="183" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A183" s="12"/>
+    </row>
+    <row r="183" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A183" s="7"/>
       <c r="B183" s="2" t="s">
         <v>184</v>
       </c>
@@ -4119,10 +4123,9 @@
       <c r="D183" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="E183" s="12"/>
-    </row>
-    <row r="184" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A184" s="12"/>
+    </row>
+    <row r="184" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A184" s="7"/>
       <c r="B184" s="2" t="s">
         <v>236</v>
       </c>
@@ -4132,10 +4135,9 @@
       <c r="D184" s="2" t="s">
         <v>239</v>
       </c>
-      <c r="E184" s="12"/>
-    </row>
-    <row r="185" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A185" s="12"/>
+    </row>
+    <row r="185" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A185" s="7"/>
       <c r="B185" s="2" t="s">
         <v>238</v>
       </c>
@@ -4145,10 +4147,9 @@
       <c r="D185" s="2" t="s">
         <v>240</v>
       </c>
-      <c r="E185" s="12"/>
-    </row>
-    <row r="186" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A186" s="12"/>
+    </row>
+    <row r="186" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A186" s="7"/>
       <c r="B186" s="2" t="s">
         <v>187</v>
       </c>
@@ -4158,10 +4159,9 @@
       <c r="D186" s="2" t="s">
         <v>190</v>
       </c>
-      <c r="E186" s="12"/>
-    </row>
-    <row r="187" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A187" s="12"/>
+    </row>
+    <row r="187" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A187" s="7"/>
       <c r="B187" s="2" t="s">
         <v>188</v>
       </c>
@@ -4171,10 +4171,9 @@
       <c r="D187" s="2" t="s">
         <v>191</v>
       </c>
-      <c r="E187" s="12"/>
-    </row>
-    <row r="188" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A188" s="12"/>
+    </row>
+    <row r="188" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A188" s="7"/>
       <c r="B188" s="2" t="s">
         <v>189</v>
       </c>
@@ -4184,10 +4183,9 @@
       <c r="D188" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="E188" s="12"/>
-    </row>
-    <row r="189" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A189" s="12"/>
+    </row>
+    <row r="189" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A189" s="7"/>
       <c r="B189" s="2" t="s">
         <v>197</v>
       </c>
@@ -4197,10 +4195,9 @@
       <c r="D189" s="2" t="s">
         <v>198</v>
       </c>
-      <c r="E189" s="12"/>
-    </row>
-    <row r="190" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A190" s="12"/>
+    </row>
+    <row r="190" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A190" s="7"/>
       <c r="B190" s="1" t="s">
         <v>129</v>
       </c>
@@ -4210,10 +4207,9 @@
       <c r="D190" s="1" t="s">
         <v>248</v>
       </c>
-      <c r="E190" s="12"/>
-    </row>
-    <row r="191" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A191" s="12"/>
+    </row>
+    <row r="191" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A191" s="7"/>
       <c r="B191" s="1" t="s">
         <v>141</v>
       </c>
@@ -4223,10 +4219,9 @@
       <c r="D191" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E191" s="12"/>
-    </row>
-    <row r="192" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A192" s="12"/>
+    </row>
+    <row r="192" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A192" s="7"/>
       <c r="B192" s="1" t="s">
         <v>10</v>
       </c>
@@ -4236,10 +4231,9 @@
       <c r="D192" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="E192" s="12"/>
     </row>
     <row r="193" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A193" s="12"/>
+      <c r="A193" s="7"/>
       <c r="B193" s="1" t="s">
         <v>11</v>
       </c>
@@ -4249,10 +4243,9 @@
       <c r="D193" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="E193" s="12"/>
     </row>
     <row r="194" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A194" s="12"/>
+      <c r="A194" s="7"/>
       <c r="B194" s="2" t="s">
         <v>199</v>
       </c>
@@ -4262,7 +4255,6 @@
       <c r="D194" s="2" t="s">
         <v>291</v>
       </c>
-      <c r="E194" s="12"/>
     </row>
     <row r="195" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A195" s="4"/>
@@ -4272,7 +4264,7 @@
       <c r="E195" s="4"/>
     </row>
     <row r="196" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A196" s="12" t="s">
+      <c r="A196" s="13" t="s">
         <v>169</v>
       </c>
       <c r="B196" s="1" t="s">
@@ -4284,12 +4276,12 @@
       <c r="D196" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="E196" s="12" t="s">
+      <c r="E196" s="13" t="s">
         <v>201</v>
       </c>
     </row>
     <row r="197" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A197" s="12"/>
+      <c r="A197" s="13"/>
       <c r="B197" s="1" t="s">
         <v>26</v>
       </c>
@@ -4299,10 +4291,10 @@
       <c r="D197" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="E197" s="12"/>
+      <c r="E197" s="13"/>
     </row>
     <row r="198" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A198" s="12"/>
+      <c r="A198" s="13"/>
       <c r="B198" s="1" t="s">
         <v>165</v>
       </c>
@@ -4312,10 +4304,10 @@
       <c r="D198" s="1" t="s">
         <v>290</v>
       </c>
-      <c r="E198" s="12"/>
+      <c r="E198" s="13"/>
     </row>
     <row r="199" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A199" s="12"/>
+      <c r="A199" s="13"/>
       <c r="B199" s="2" t="s">
         <v>166</v>
       </c>
@@ -4325,10 +4317,10 @@
       <c r="D199" s="2" t="s">
         <v>175</v>
       </c>
-      <c r="E199" s="12"/>
+      <c r="E199" s="13"/>
     </row>
     <row r="200" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A200" s="12"/>
+      <c r="A200" s="13"/>
       <c r="B200" s="1" t="s">
         <v>141</v>
       </c>
@@ -4338,10 +4330,10 @@
       <c r="D200" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E200" s="12"/>
+      <c r="E200" s="13"/>
     </row>
     <row r="201" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A201" s="12"/>
+      <c r="A201" s="13"/>
       <c r="B201" s="1" t="s">
         <v>10</v>
       </c>
@@ -4351,10 +4343,10 @@
       <c r="D201" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="E201" s="12"/>
+      <c r="E201" s="13"/>
     </row>
     <row r="202" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A202" s="12"/>
+      <c r="A202" s="13"/>
       <c r="B202" s="1" t="s">
         <v>11</v>
       </c>
@@ -4364,14 +4356,14 @@
       <c r="D202" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="E202" s="12"/>
+      <c r="E202" s="13"/>
     </row>
     <row r="203" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A203" s="4"/>
       <c r="E203" s="4"/>
     </row>
     <row r="204" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A204" s="13" t="s">
+      <c r="A204" s="14" t="s">
         <v>168</v>
       </c>
       <c r="B204" s="1" t="s">
@@ -4383,12 +4375,12 @@
       <c r="D204" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="E204" s="12" t="s">
+      <c r="E204" s="13" t="s">
         <v>178</v>
       </c>
     </row>
     <row r="205" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A205" s="13"/>
+      <c r="A205" s="14"/>
       <c r="B205" s="1" t="s">
         <v>172</v>
       </c>
@@ -4398,10 +4390,10 @@
       <c r="D205" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="E205" s="12"/>
+      <c r="E205" s="13"/>
     </row>
     <row r="206" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A206" s="13"/>
+      <c r="A206" s="14"/>
       <c r="B206" s="1" t="s">
         <v>179</v>
       </c>
@@ -4411,667 +4403,657 @@
       <c r="D206" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="E206" s="12"/>
+      <c r="E206" s="13"/>
     </row>
     <row r="207" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A207" s="13"/>
-      <c r="B207" s="10" t="s">
+      <c r="A207" s="14"/>
+      <c r="B207" s="12" t="s">
+        <v>336</v>
+      </c>
+      <c r="C207" s="12" t="s">
+        <v>173</v>
+      </c>
+      <c r="D207" s="12" t="s">
+        <v>335</v>
+      </c>
+      <c r="E207" s="13"/>
+    </row>
+    <row r="208" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A208" s="14"/>
+      <c r="B208" s="10" t="s">
         <v>193</v>
-      </c>
-      <c r="C207" s="10" t="s">
-        <v>173</v>
-      </c>
-      <c r="D207" s="10" t="s">
-        <v>194</v>
-      </c>
-      <c r="E207" s="12"/>
-    </row>
-    <row r="208" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A208" s="13"/>
-      <c r="B208" s="10" t="s">
-        <v>167</v>
       </c>
       <c r="C208" s="10" t="s">
         <v>173</v>
       </c>
       <c r="D208" s="10" t="s">
+        <v>194</v>
+      </c>
+      <c r="E208" s="13"/>
+    </row>
+    <row r="209" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A209" s="14"/>
+      <c r="B209" s="10" t="s">
+        <v>167</v>
+      </c>
+      <c r="C209" s="10" t="s">
+        <v>173</v>
+      </c>
+      <c r="D209" s="10" t="s">
         <v>313</v>
       </c>
-      <c r="E208" s="12"/>
-    </row>
-    <row r="209" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A209" s="13"/>
-      <c r="B209" s="2" t="s">
+      <c r="E209" s="13"/>
+    </row>
+    <row r="210" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A210" s="14"/>
+      <c r="B210" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="C209" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="D209" s="2" t="s">
+      <c r="C210" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D210" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="E209" s="12"/>
-    </row>
-    <row r="210" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A210" s="13"/>
-      <c r="B210" s="1" t="s">
+      <c r="E210" s="13"/>
+    </row>
+    <row r="211" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A211" s="14"/>
+      <c r="B211" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="C210" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="D210" s="2" t="s">
+      <c r="C211" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D211" s="2" t="s">
         <v>289</v>
       </c>
-      <c r="E210" s="12"/>
-    </row>
-    <row r="211" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A211" s="13"/>
-      <c r="B211" s="1" t="s">
+      <c r="E211" s="13"/>
+    </row>
+    <row r="212" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A212" s="14"/>
+      <c r="B212" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="C211" s="1" t="s">
+      <c r="C212" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D211" s="1" t="s">
+      <c r="D212" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E211" s="12"/>
-    </row>
-    <row r="212" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A212" s="13"/>
-      <c r="B212" s="1" t="s">
+      <c r="E212" s="13"/>
+    </row>
+    <row r="213" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A213" s="14"/>
+      <c r="B213" s="1" t="s">
         <v>10</v>
-      </c>
-      <c r="C212" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D212" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="E212" s="12"/>
-    </row>
-    <row r="213" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A213" s="13"/>
-      <c r="B213" s="1" t="s">
-        <v>11</v>
       </c>
       <c r="C213" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D213" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E213" s="13"/>
+    </row>
+    <row r="214" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A214" s="14"/>
+      <c r="B214" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C214" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D214" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="E213" s="12"/>
-    </row>
-    <row r="214" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A214" s="8"/>
-      <c r="E214" s="4"/>
     </row>
     <row r="215" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A215" s="12" t="s">
+      <c r="A215" s="8"/>
+      <c r="E215" s="4"/>
+    </row>
+    <row r="216" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A216" s="13" t="s">
         <v>216</v>
       </c>
-      <c r="B215" s="2" t="s">
+      <c r="B216" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C215" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="D215" s="2" t="s">
+      <c r="C216" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D216" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="E215" s="12" t="s">
+      <c r="E216" s="13" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="216" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A216" s="12"/>
-      <c r="B216" s="2" t="s">
+    <row r="217" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A217" s="13"/>
+      <c r="B217" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="C216" s="2" t="s">
+      <c r="C217" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="D216" s="2" t="s">
+      <c r="D217" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="E216" s="12"/>
-    </row>
-    <row r="217" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A217" s="12"/>
-      <c r="B217" s="2" t="s">
+      <c r="E217" s="13"/>
+    </row>
+    <row r="218" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A218" s="13"/>
+      <c r="B218" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C217" s="2" t="s">
+      <c r="C218" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D217" s="2" t="s">
+      <c r="D218" s="2" t="s">
         <v>217</v>
       </c>
-      <c r="E217" s="12"/>
-    </row>
-    <row r="218" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A218" s="12"/>
-      <c r="B218" s="2" t="s">
+      <c r="E218" s="13"/>
+    </row>
+    <row r="219" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A219" s="13"/>
+      <c r="B219" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="C218" s="2" t="s">
+      <c r="C219" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D218" s="2" t="s">
+      <c r="D219" s="2" t="s">
         <v>218</v>
       </c>
-      <c r="E218" s="12"/>
-    </row>
-    <row r="219" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A219" s="12"/>
-      <c r="B219" s="2" t="s">
+      <c r="E219" s="13"/>
+    </row>
+    <row r="220" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A220" s="13"/>
+      <c r="B220" s="2" t="s">
         <v>205</v>
-      </c>
-      <c r="C219" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D219" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="E219" s="12"/>
-    </row>
-    <row r="220" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A220" s="12"/>
-      <c r="B220" s="2" t="s">
-        <v>206</v>
       </c>
       <c r="C220" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D220" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="E220" s="13"/>
+    </row>
+    <row r="221" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A221" s="13"/>
+      <c r="B221" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="C221" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D221" s="2" t="s">
         <v>207</v>
       </c>
-      <c r="E220" s="12"/>
-    </row>
-    <row r="221" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A221" s="12"/>
-      <c r="B221" s="2" t="s">
+      <c r="E221" s="13"/>
+    </row>
+    <row r="222" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A222" s="13"/>
+      <c r="B222" s="2" t="s">
         <v>257</v>
       </c>
-      <c r="C221" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="D221" s="2" t="s">
+      <c r="C222" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D222" s="2" t="s">
         <v>208</v>
       </c>
-      <c r="E221" s="12"/>
-    </row>
-    <row r="222" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A222" s="4"/>
-      <c r="B222" s="2"/>
-      <c r="C222" s="2"/>
-      <c r="D222" s="2"/>
-      <c r="E222" s="4"/>
+      <c r="E222" s="13"/>
     </row>
     <row r="223" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A223" s="12" t="s">
+      <c r="A223" s="4"/>
+      <c r="B223" s="2"/>
+      <c r="C223" s="2"/>
+      <c r="D223" s="2"/>
+      <c r="E223" s="4"/>
+    </row>
+    <row r="224" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A224" s="13" t="s">
         <v>221</v>
       </c>
-      <c r="B223" s="1" t="s">
+      <c r="B224" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C223" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="D223" s="1" t="s">
+      <c r="C224" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D224" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="E223" s="12" t="s">
+      <c r="E224" s="13" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="224" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A224" s="12"/>
-      <c r="B224" s="2" t="s">
+    <row r="225" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A225" s="13"/>
+      <c r="B225" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="C224" s="2" t="s">
+      <c r="C225" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D224" s="2" t="s">
+      <c r="D225" s="2" t="s">
         <v>222</v>
       </c>
-      <c r="E224" s="12"/>
-    </row>
-    <row r="225" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A225" s="12"/>
-      <c r="B225" s="2" t="s">
+      <c r="E225" s="13"/>
+    </row>
+    <row r="226" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A226" s="13"/>
+      <c r="B226" s="2" t="s">
         <v>223</v>
       </c>
-      <c r="C225" s="2" t="s">
+      <c r="C226" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D225" s="2" t="s">
+      <c r="D226" s="2" t="s">
         <v>224</v>
       </c>
-      <c r="E225" s="12"/>
-    </row>
-    <row r="226" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A226" s="12"/>
-      <c r="B226" s="2" t="s">
+      <c r="E226" s="13"/>
+    </row>
+    <row r="227" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A227" s="13"/>
+      <c r="B227" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="C226" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="D226" s="2" t="s">
+      <c r="C227" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D227" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="E226" s="12"/>
-    </row>
-    <row r="227" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A227" s="12"/>
-      <c r="B227" s="2" t="s">
+      <c r="E227" s="13"/>
+    </row>
+    <row r="228" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A228" s="13"/>
+      <c r="B228" s="2" t="s">
         <v>225</v>
       </c>
-      <c r="C227" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="D227" s="2" t="s">
+      <c r="C228" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D228" s="2" t="s">
         <v>227</v>
       </c>
-      <c r="E227" s="12"/>
-    </row>
-    <row r="228" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A228" s="12"/>
-      <c r="B228" s="2" t="s">
+      <c r="E228" s="13"/>
+    </row>
+    <row r="229" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A229" s="13"/>
+      <c r="B229" s="2" t="s">
         <v>257</v>
       </c>
-      <c r="C228" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="D228" s="2" t="s">
+      <c r="C229" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D229" s="2" t="s">
         <v>226</v>
       </c>
-      <c r="E228" s="12"/>
-    </row>
-    <row r="229" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A229" s="12"/>
-      <c r="B229" s="1" t="s">
+      <c r="E229" s="13"/>
+    </row>
+    <row r="230" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A230" s="13"/>
+      <c r="B230" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="C229" s="1" t="s">
+      <c r="C230" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D229" s="1" t="s">
+      <c r="D230" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E229" s="12"/>
-    </row>
-    <row r="230" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A230" s="12"/>
-      <c r="B230" s="1" t="s">
+      <c r="E230" s="13"/>
+    </row>
+    <row r="231" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A231" s="13"/>
+      <c r="B231" s="1" t="s">
         <v>10</v>
-      </c>
-      <c r="C230" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D230" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="E230" s="12"/>
-    </row>
-    <row r="231" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A231" s="12"/>
-      <c r="B231" s="1" t="s">
-        <v>11</v>
       </c>
       <c r="C231" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D231" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E231" s="13"/>
+    </row>
+    <row r="232" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A232" s="13"/>
+      <c r="B232" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C232" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D232" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="E231" s="12"/>
-    </row>
-    <row r="232" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A232" s="4"/>
-      <c r="E232" s="4"/>
+      <c r="E232" s="13"/>
     </row>
     <row r="233" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A233" s="13" t="s">
+      <c r="A233" s="4"/>
+      <c r="E233" s="4"/>
+    </row>
+    <row r="234" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A234" s="14" t="s">
         <v>288</v>
       </c>
-      <c r="B233" s="1" t="s">
+      <c r="B234" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C233" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="D233" s="1" t="s">
+      <c r="C234" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D234" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="E233" s="12" t="s">
+      <c r="E234" s="13" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="234" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A234" s="13"/>
-      <c r="B234" s="1" t="s">
+    <row r="235" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A235" s="14"/>
+      <c r="B235" s="1" t="s">
         <v>242</v>
       </c>
-      <c r="C234" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="D234" s="5" t="s">
+      <c r="C235" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D235" s="5" t="s">
         <v>244</v>
       </c>
-      <c r="E234" s="12"/>
-    </row>
-    <row r="235" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A235" s="13"/>
-      <c r="B235" s="1" t="s">
+      <c r="E235" s="13"/>
+    </row>
+    <row r="236" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A236" s="14"/>
+      <c r="B236" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="C235" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="D235" s="5" t="s">
+      <c r="C236" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D236" s="5" t="s">
         <v>245</v>
       </c>
-      <c r="E235" s="12"/>
-    </row>
-    <row r="236" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A236" s="13"/>
-      <c r="B236" s="2" t="s">
+      <c r="E236" s="13"/>
+    </row>
+    <row r="237" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A237" s="14"/>
+      <c r="B237" s="2" t="s">
         <v>286</v>
       </c>
-      <c r="C236" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="D236" s="5" t="s">
+      <c r="C237" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D237" s="5" t="s">
         <v>287</v>
       </c>
-      <c r="E236" s="12"/>
-    </row>
-    <row r="237" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A237" s="13"/>
-      <c r="B237" s="1" t="s">
+      <c r="E237" s="13"/>
+    </row>
+    <row r="238" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A238" s="14"/>
+      <c r="B238" s="1" t="s">
         <v>241</v>
       </c>
-      <c r="C237" s="1" t="s">
+      <c r="C238" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D237" s="1" t="s">
+      <c r="D238" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="E237" s="12"/>
-    </row>
-    <row r="238" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A238" s="13"/>
-      <c r="B238" s="2" t="s">
+      <c r="E238" s="13"/>
+    </row>
+    <row r="239" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A239" s="14"/>
+      <c r="B239" s="2" t="s">
         <v>253</v>
       </c>
-      <c r="C238" s="2" t="s">
+      <c r="C239" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D238" s="2" t="s">
+      <c r="D239" s="2" t="s">
         <v>292</v>
       </c>
-      <c r="E238" s="12"/>
-    </row>
-    <row r="239" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A239" s="13"/>
-      <c r="B239" s="1" t="s">
+      <c r="E239" s="13"/>
+    </row>
+    <row r="240" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A240" s="14"/>
+      <c r="B240" s="1" t="s">
         <v>74</v>
-      </c>
-      <c r="C239" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="D239" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="E239" s="12"/>
-    </row>
-    <row r="240" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A240" s="13"/>
-      <c r="B240" s="1" t="s">
-        <v>73</v>
       </c>
       <c r="C240" s="1" t="s">
         <v>75</v>
       </c>
       <c r="D240" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="E240" s="13"/>
+    </row>
+    <row r="241" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A241" s="14"/>
+      <c r="B241" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C241" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D241" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="E240" s="12"/>
-    </row>
-    <row r="241" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A241" s="8"/>
-      <c r="E241" s="4"/>
+      <c r="E241" s="13"/>
     </row>
     <row r="242" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A242" s="13" t="s">
+      <c r="A242" s="8"/>
+      <c r="E242" s="4"/>
+    </row>
+    <row r="243" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A243" s="14" t="s">
         <v>293</v>
       </c>
-      <c r="B242" s="2" t="s">
+      <c r="B243" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C242" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="D242" s="1" t="s">
+      <c r="C243" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D243" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="E242" s="12" t="s">
+      <c r="E243" s="13" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="243" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A243" s="13"/>
-      <c r="B243" s="2" t="s">
+    <row r="244" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A244" s="14"/>
+      <c r="B244" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="C243" s="2" t="s">
+      <c r="C244" s="2" t="s">
         <v>237</v>
       </c>
-      <c r="D243" s="2" t="s">
+      <c r="D244" s="2" t="s">
         <v>249</v>
       </c>
-      <c r="E243" s="12"/>
-    </row>
-    <row r="244" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A244" s="13"/>
-      <c r="B244" s="2" t="s">
+      <c r="E244" s="13"/>
+    </row>
+    <row r="245" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A245" s="14"/>
+      <c r="B245" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="C244" s="2" t="s">
+      <c r="C245" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="D245" s="2" t="s">
         <v>323</v>
       </c>
-      <c r="D244" s="2" t="s">
+      <c r="E245" s="13"/>
+    </row>
+    <row r="246" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A246" s="14"/>
+      <c r="B246" s="2" t="s">
         <v>324</v>
       </c>
-      <c r="E244" s="12"/>
-    </row>
-    <row r="245" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A245" s="13"/>
-      <c r="B245" s="2" t="s">
+      <c r="C246" s="2" t="s">
         <v>325</v>
       </c>
-      <c r="C245" s="2" t="s">
+      <c r="D246" s="2" t="s">
         <v>326</v>
       </c>
-      <c r="D245" s="2" t="s">
+      <c r="E246" s="13"/>
+    </row>
+    <row r="247" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A247" s="14"/>
+      <c r="B247" s="2" t="s">
         <v>327</v>
       </c>
-      <c r="E245" s="12"/>
-    </row>
-    <row r="246" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A246" s="13"/>
-      <c r="B246" s="2" t="s">
+      <c r="C247" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D247" s="2" t="s">
         <v>328</v>
       </c>
-      <c r="C246" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D246" s="2" t="s">
-        <v>329</v>
-      </c>
-      <c r="E246" s="12"/>
-    </row>
-    <row r="247" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A247" s="13"/>
-      <c r="B247" s="2" t="s">
+      <c r="E247" s="13"/>
+    </row>
+    <row r="248" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A248" s="14"/>
+      <c r="B248" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C247" s="2" t="s">
+      <c r="C248" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D247" s="2" t="s">
+      <c r="D248" s="2" t="s">
         <v>228</v>
       </c>
-      <c r="E247" s="12"/>
-    </row>
-    <row r="249" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A249" s="12" t="s">
+      <c r="E248" s="13"/>
+    </row>
+    <row r="250" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A250" s="13" t="s">
         <v>307</v>
       </c>
-      <c r="B249" s="2" t="s">
+      <c r="B250" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C249" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="D249" s="1" t="s">
+      <c r="C250" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D250" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="E249" s="12" t="s">
+      <c r="E250" s="13" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="250" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A250" s="12"/>
-      <c r="B250" s="2" t="s">
+    <row r="251" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A251" s="13"/>
+      <c r="B251" s="2" t="s">
         <v>304</v>
-      </c>
-      <c r="C250" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D250" s="2" t="s">
-        <v>305</v>
-      </c>
-      <c r="E250" s="12"/>
-    </row>
-    <row r="251" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A251" s="12"/>
-      <c r="B251" s="2" t="s">
-        <v>34</v>
       </c>
       <c r="C251" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D251" s="2" t="s">
-        <v>303</v>
-      </c>
-      <c r="E251" s="12"/>
+        <v>305</v>
+      </c>
+      <c r="E251" s="13"/>
     </row>
     <row r="252" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A252" s="12"/>
+      <c r="A252" s="13"/>
       <c r="B252" s="2" t="s">
-        <v>302</v>
+        <v>34</v>
       </c>
       <c r="C252" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D252" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="E252" s="13"/>
+    </row>
+    <row r="253" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A253" s="13"/>
+      <c r="B253" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="C253" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D253" s="2" t="s">
         <v>297</v>
       </c>
-      <c r="E252" s="12"/>
-    </row>
-    <row r="253" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A253" s="12"/>
-      <c r="B253" s="2" t="s">
+      <c r="E253" s="13"/>
+    </row>
+    <row r="254" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A254" s="13"/>
+      <c r="B254" s="2" t="s">
         <v>36</v>
-      </c>
-      <c r="C253" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D253" s="2" t="s">
-        <v>306</v>
-      </c>
-      <c r="E253" s="12"/>
-    </row>
-    <row r="254" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A254" s="12"/>
-      <c r="B254" s="1" t="s">
-        <v>141</v>
       </c>
       <c r="C254" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D254" s="1" t="s">
+      <c r="D254" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="E254" s="13"/>
+    </row>
+    <row r="255" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A255" s="13"/>
+      <c r="B255" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="C255" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D255" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E254" s="12"/>
-    </row>
-    <row r="255" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A255" s="12"/>
-      <c r="B255" s="1" t="s">
+      <c r="E255" s="13"/>
+    </row>
+    <row r="256" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A256" s="13"/>
+      <c r="B256" s="1" t="s">
         <v>10</v>
-      </c>
-      <c r="C255" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D255" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="E255" s="12"/>
-    </row>
-    <row r="256" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A256" s="12"/>
-      <c r="B256" s="1" t="s">
-        <v>11</v>
       </c>
       <c r="C256" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D256" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E256" s="13"/>
+    </row>
+    <row r="257" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A257" s="13"/>
+      <c r="B257" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C257" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D257" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="E256" s="12"/>
-    </row>
-    <row r="257" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E257" s="1"/>
-    </row>
-    <row r="258" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E257" s="13"/>
+    </row>
+    <row r="258" spans="1:5" x14ac:dyDescent="0.2">
       <c r="E258" s="1"/>
     </row>
+    <row r="259" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E259" s="1"/>
+    </row>
   </sheetData>
-  <mergeCells count="48">
-    <mergeCell ref="A249:A256"/>
-    <mergeCell ref="E249:E256"/>
-    <mergeCell ref="A2:A16"/>
-    <mergeCell ref="E2:E16"/>
-    <mergeCell ref="E242:E247"/>
-    <mergeCell ref="A114:A144"/>
-    <mergeCell ref="E114:E144"/>
-    <mergeCell ref="A154:A155"/>
-    <mergeCell ref="E154:E155"/>
-    <mergeCell ref="E233:E240"/>
-    <mergeCell ref="E215:E221"/>
-    <mergeCell ref="E223:E231"/>
-    <mergeCell ref="A233:A240"/>
-    <mergeCell ref="A196:A202"/>
-    <mergeCell ref="A223:A231"/>
-    <mergeCell ref="A242:A247"/>
-    <mergeCell ref="A215:A221"/>
-    <mergeCell ref="E196:E202"/>
-    <mergeCell ref="E204:E213"/>
-    <mergeCell ref="A204:A213"/>
-    <mergeCell ref="A61:A63"/>
-    <mergeCell ref="A65:A80"/>
-    <mergeCell ref="E40:E45"/>
-    <mergeCell ref="E47:E52"/>
-    <mergeCell ref="E54:E59"/>
-    <mergeCell ref="E61:E63"/>
-    <mergeCell ref="E65:E80"/>
+  <mergeCells count="46">
+    <mergeCell ref="E97:E106"/>
+    <mergeCell ref="A97:A106"/>
+    <mergeCell ref="A157:A163"/>
+    <mergeCell ref="E157:E163"/>
+    <mergeCell ref="A204:A214"/>
     <mergeCell ref="A18:A24"/>
     <mergeCell ref="A26:A38"/>
     <mergeCell ref="E18:E24"/>
@@ -5079,20 +5061,40 @@
     <mergeCell ref="A54:A59"/>
     <mergeCell ref="A40:A45"/>
     <mergeCell ref="A47:A52"/>
+    <mergeCell ref="E40:E45"/>
+    <mergeCell ref="E47:E52"/>
+    <mergeCell ref="E54:E59"/>
+    <mergeCell ref="E61:E63"/>
+    <mergeCell ref="E65:E80"/>
+    <mergeCell ref="A216:A222"/>
+    <mergeCell ref="E196:E202"/>
+    <mergeCell ref="E204:E213"/>
+    <mergeCell ref="A61:A63"/>
+    <mergeCell ref="A65:A80"/>
     <mergeCell ref="E82:E87"/>
     <mergeCell ref="E89:E95"/>
     <mergeCell ref="A108:A112"/>
     <mergeCell ref="A146:A152"/>
-    <mergeCell ref="A165:A194"/>
     <mergeCell ref="A82:A87"/>
     <mergeCell ref="A89:A95"/>
     <mergeCell ref="E108:E112"/>
     <mergeCell ref="E146:E152"/>
-    <mergeCell ref="E165:E194"/>
-    <mergeCell ref="E97:E106"/>
-    <mergeCell ref="A97:A106"/>
-    <mergeCell ref="A157:A163"/>
-    <mergeCell ref="E157:E163"/>
+    <mergeCell ref="A250:A257"/>
+    <mergeCell ref="E250:E257"/>
+    <mergeCell ref="A2:A16"/>
+    <mergeCell ref="E2:E16"/>
+    <mergeCell ref="E243:E248"/>
+    <mergeCell ref="A114:A144"/>
+    <mergeCell ref="E114:E144"/>
+    <mergeCell ref="A154:A155"/>
+    <mergeCell ref="E154:E155"/>
+    <mergeCell ref="E234:E241"/>
+    <mergeCell ref="E216:E222"/>
+    <mergeCell ref="E224:E232"/>
+    <mergeCell ref="A234:A241"/>
+    <mergeCell ref="A196:A202"/>
+    <mergeCell ref="A224:A232"/>
+    <mergeCell ref="A243:A248"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
